--- a/src/main/DataBase/ClientDataBase.xlsx
+++ b/src/main/DataBase/ClientDataBase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Documents/git/ATM_Project/src/main/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550BEDF4-D7B1-EB48-9948-06DE6D3C15A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A881884-E545-6C48-9C44-56672C38785F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2480" windowWidth="28800" windowHeight="12780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="28800" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>Card Number</t>
   </si>
@@ -177,9 +177,6 @@
     <t>104219#10#3</t>
   </si>
   <si>
-    <t>104217#2000#3</t>
-  </si>
-  <si>
     <t>Acc#4</t>
   </si>
   <si>
@@ -234,12 +231,6 @@
     <t>304210#323232</t>
   </si>
   <si>
-    <t>204555#6000#2</t>
-  </si>
-  <si>
-    <t>204202#123#3</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
@@ -264,115 +255,46 @@
     <t>104216#92#6</t>
   </si>
   <si>
-    <t>104202#20648#6</t>
-  </si>
-  <si>
-    <t>104220#200#6</t>
-  </si>
-  <si>
     <t>304201#543#6</t>
-  </si>
-  <si>
-    <t>304202#123#6</t>
-  </si>
-  <si>
-    <t>304202#12345#6</t>
-  </si>
-  <si>
-    <t>104220#1000#6</t>
-  </si>
-  <si>
-    <t>104220#1200#6</t>
-  </si>
-  <si>
-    <t>204202#100#2</t>
   </si>
   <si>
     <t>104217#1900#3</t>
   </si>
   <si>
-    <t>104202#20770#6</t>
-  </si>
-  <si>
-    <t>104202#20893#6</t>
-  </si>
-  <si>
-    <t>104202#20900#6</t>
-  </si>
-  <si>
-    <t>104220#1300#6</t>
-  </si>
-  <si>
-    <t>104202#21000#6</t>
-  </si>
-  <si>
-    <t>104202#21012#6</t>
-  </si>
-  <si>
-    <t>104220#1423#6</t>
-  </si>
-  <si>
-    <t>104202#21135#6</t>
-  </si>
-  <si>
-    <t>104220#2657#6</t>
-  </si>
-  <si>
-    <t>104202#21357#6</t>
-  </si>
-  <si>
-    <t>104202#21690#6</t>
-  </si>
-  <si>
-    <t>104202#21813#6</t>
-  </si>
-  <si>
-    <t>104220#15002#6</t>
-  </si>
-  <si>
-    <t>104202#21825#6</t>
-  </si>
-  <si>
-    <t>104220#15025#6</t>
-  </si>
-  <si>
-    <t>104202#21837#6</t>
-  </si>
-  <si>
-    <t>104202#22948#6</t>
-  </si>
-  <si>
-    <t>104202#23148#6</t>
-  </si>
-  <si>
-    <t>104202#23160#6</t>
-  </si>
-  <si>
-    <t>204202#111#2</t>
-  </si>
-  <si>
-    <t>104202#23172#6</t>
-  </si>
-  <si>
-    <t>204555#6122#2</t>
-  </si>
-  <si>
-    <t>104202#23184#6</t>
-  </si>
-  <si>
-    <t>104202#23196#6</t>
-  </si>
-  <si>
     <t>104220#15037#6</t>
   </si>
   <si>
-    <t>204555#7344#2</t>
+    <t>204202#100#1</t>
   </si>
   <si>
-    <t>104202#23208#6</t>
+    <t>304202#12500#6</t>
   </si>
   <si>
-    <t>204555#7374#2</t>
+    <t>204555#7386#0</t>
+  </si>
+  <si>
+    <t>104202#23078#5</t>
+  </si>
+  <si>
+    <t>104203#582#3</t>
+  </si>
+  <si>
+    <t>104203#56982#6</t>
+  </si>
+  <si>
+    <t>104203#56982#1</t>
+  </si>
+  <si>
+    <t>104203#5982#2</t>
+  </si>
+  <si>
+    <t>104203#982#3</t>
+  </si>
+  <si>
+    <t>104204#56982#3</t>
+  </si>
+  <si>
+    <t>104208#82#6</t>
   </si>
 </sst>
 </file>
@@ -382,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -396,6 +318,10 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -650,18 +576,18 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="6.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="9.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -687,15 +613,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -707,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -747,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -762,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -785,7 +711,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -811,7 +737,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
@@ -840,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
@@ -863,10 +789,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -889,10 +815,10 @@
         <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -918,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
@@ -944,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
@@ -7884,14 +7810,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="2" max="11" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="12" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="11" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7947,31 +7873,31 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="4">
-        <v>104204</v>
-      </c>
-      <c r="F2" s="4">
-        <v>104205</v>
-      </c>
-      <c r="G2" s="4">
-        <v>104206</v>
-      </c>
-      <c r="H2" s="4">
-        <v>104207</v>
-      </c>
-      <c r="I2" s="4">
-        <v>104208</v>
-      </c>
-      <c r="J2" s="4">
-        <v>104209</v>
-      </c>
-      <c r="K2" s="4">
-        <v>104210</v>
+      <c r="E2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7979,28 +7905,28 @@
         <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="4">
-        <v>104215</v>
-      </c>
-      <c r="E3" s="4">
-        <v>104213</v>
-      </c>
-      <c r="H3" s="4">
-        <v>104214</v>
-      </c>
-      <c r="I3" s="4">
-        <v>104218</v>
-      </c>
-      <c r="J3" s="4">
-        <v>104212</v>
-      </c>
-      <c r="K3" s="4">
-        <v>104211</v>
+      <c r="D3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8011,20 +7937,25 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="4">
-        <v>104217</v>
+        <v>74</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9022,6 +8953,7 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -9037,11 +8969,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="2" max="9" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="12" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9094,34 +9026,34 @@
         <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9129,17 +9061,17 @@
         <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9147,22 +9079,22 @@
         <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10169,15 +10101,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="2" max="11" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="12" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="11" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10230,34 +10162,34 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10272,12 +10204,12 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/DataBase/ClientDataBase.xlsx
+++ b/src/main/DataBase/ClientDataBase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Documents/git/ATM_Project/src/main/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A881884-E545-6C48-9C44-56672C38785F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362CE6A5-32A4-8B45-AB2C-D6E9A0E37D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2480" windowWidth="28800" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="28800" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>Card Number</t>
   </si>
@@ -261,19 +261,7 @@
     <t>104217#1900#3</t>
   </si>
   <si>
-    <t>104220#15037#6</t>
-  </si>
-  <si>
-    <t>204202#100#1</t>
-  </si>
-  <si>
     <t>304202#12500#6</t>
-  </si>
-  <si>
-    <t>204555#7386#0</t>
-  </si>
-  <si>
-    <t>104202#23078#5</t>
   </si>
   <si>
     <t>104203#582#3</t>
@@ -295,6 +283,96 @@
   </si>
   <si>
     <t>104208#82#6</t>
+  </si>
+  <si>
+    <t>204202#88#0</t>
+  </si>
+  <si>
+    <t>204555#7386#3</t>
+  </si>
+  <si>
+    <t>104220#70#6</t>
+  </si>
+  <si>
+    <t>104202#200#4</t>
+  </si>
+  <si>
+    <t>204739#0#6</t>
+  </si>
+  <si>
+    <t>104220#82#6</t>
+  </si>
+  <si>
+    <t>104202#188#4</t>
+  </si>
+  <si>
+    <t>104202#184#3</t>
+  </si>
+  <si>
+    <t>104220#79#5</t>
+  </si>
+  <si>
+    <t>204202#87#0</t>
+  </si>
+  <si>
+    <t>104202#182#3</t>
+  </si>
+  <si>
+    <t>104220#78#4</t>
+  </si>
+  <si>
+    <t>204202#86#0</t>
+  </si>
+  <si>
+    <t>104220#76#4</t>
+  </si>
+  <si>
+    <t>204739#2#6</t>
+  </si>
+  <si>
+    <t>204555#7384#3</t>
+  </si>
+  <si>
+    <t>304202#12650#6</t>
+  </si>
+  <si>
+    <t>304202#12651#6</t>
+  </si>
+  <si>
+    <t>204203#3315#4</t>
+  </si>
+  <si>
+    <t>204204#4#1</t>
+  </si>
+  <si>
+    <t>104203#581#2</t>
+  </si>
+  <si>
+    <t>104203#593#2</t>
+  </si>
+  <si>
+    <t>104203#56983#6</t>
+  </si>
+  <si>
+    <t>204204#1204#1</t>
+  </si>
+  <si>
+    <t>104202#196#3</t>
+  </si>
+  <si>
+    <t>104202#396#3</t>
+  </si>
+  <si>
+    <t>304202#13651#6</t>
+  </si>
+  <si>
+    <t>104203#503#1</t>
+  </si>
+  <si>
+    <t>204202#80#0</t>
+  </si>
+  <si>
+    <t>104202#394#3</t>
   </si>
 </sst>
 </file>
@@ -576,18 +654,18 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="9.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="9.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -803,7 +881,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -7810,14 +7888,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="11" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="11" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="12" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7873,31 +7951,31 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7908,25 +7986,25 @@
         <v>72</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7937,14 +8015,14 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8963,17 +9041,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="9" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="9" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="12" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9028,14 +9106,14 @@
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>76</v>
+      <c r="C2" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>51</v>
@@ -9064,7 +9142,7 @@
         <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
@@ -9081,7 +9159,9 @@
       <c r="B4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
         <v>67</v>
@@ -10107,9 +10187,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="11" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="26" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="11" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="12" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10165,7 +10245,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>57</v>
